--- a/ecuacion-tool-code-generator-batch/excel-format/DB項目定義書(fmt-v4.9.1)_aws-instance-manager.xlsx
+++ b/ecuacion-tool-code-generator-batch/excel-format/DB項目定義書(fmt-v4.9.1)_aws-instance-manager.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E38028E-CD90-DF42-B7AF-E797C9CE61A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA3CE4D-F05C-8C44-9DB9-C47B589015ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16640" tabRatio="853" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16640" tabRatio="853" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataTypeプルダウン項目" sheetId="21" state="hidden" r:id="rId1"/>
@@ -4475,9 +4475,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>4.9.0</t>
-  </si>
-  <si>
     <t>aws-instance-manager</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -5636,6 +5633,9 @@
   </si>
   <si>
     <t>田中</t>
+  </si>
+  <si>
+    <t>4.9.1</t>
   </si>
 </sst>
 </file>
@@ -8893,7 +8893,7 @@
         <v>353</v>
       </c>
       <c r="C10" s="96" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D10" s="85"/>
     </row>
@@ -9124,7 +9124,7 @@
     </row>
     <row r="6" spans="1:30" s="66" customFormat="1" ht="14" customHeight="1">
       <c r="A6" s="68" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>297</v>
@@ -9172,16 +9172,16 @@
     </row>
     <row r="7" spans="1:30" s="66" customFormat="1" ht="14" customHeight="1">
       <c r="A7" s="68" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C7" s="68" t="s">
         <v>494</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="D7" s="68" t="s">
         <v>495</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>496</v>
       </c>
       <c r="E7" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -9210,7 +9210,7 @@
       <c r="X7" s="63"/>
       <c r="Y7" s="78"/>
       <c r="Z7" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AA7" s="68"/>
       <c r="AB7" s="63"/>
@@ -9218,16 +9218,16 @@
     </row>
     <row r="8" spans="1:30" s="66" customFormat="1" ht="14" customHeight="1">
       <c r="A8" s="68" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C8" s="68" t="s">
         <v>298</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E8" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -9254,7 +9254,7 @@
       <c r="X8" s="63"/>
       <c r="Y8" s="78"/>
       <c r="Z8" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AA8" s="68"/>
       <c r="AB8" s="63"/>
@@ -9262,16 +9262,16 @@
     </row>
     <row r="9" spans="1:30" s="66" customFormat="1" ht="14" customHeight="1">
       <c r="A9" s="68" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B9" s="68" t="s">
+        <v>497</v>
+      </c>
+      <c r="C9" s="68" t="s">
         <v>498</v>
       </c>
-      <c r="C9" s="68" t="s">
-        <v>499</v>
-      </c>
       <c r="D9" s="68" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E9" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -9298,7 +9298,7 @@
       <c r="X9" s="63"/>
       <c r="Y9" s="78"/>
       <c r="Z9" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AA9" s="68"/>
       <c r="AB9" s="63"/>
@@ -9306,13 +9306,13 @@
     </row>
     <row r="10" spans="1:30" s="66" customFormat="1" ht="14" customHeight="1">
       <c r="A10" s="68" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>501</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>206</v>
@@ -9342,7 +9342,7 @@
       <c r="X10" s="9"/>
       <c r="Y10" s="40"/>
       <c r="Z10" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AA10" s="68"/>
       <c r="AB10" s="63"/>
@@ -9350,13 +9350,13 @@
     </row>
     <row r="11" spans="1:30" s="66" customFormat="1" ht="14" customHeight="1">
       <c r="A11" s="68" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>503</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>206</v>
@@ -9386,7 +9386,7 @@
       <c r="X11" s="9"/>
       <c r="Y11" s="40"/>
       <c r="Z11" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AA11" s="68"/>
       <c r="AB11" s="63"/>
@@ -9394,10 +9394,10 @@
     </row>
     <row r="12" spans="1:30" s="66" customFormat="1" ht="14" customHeight="1">
       <c r="A12" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>504</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>505</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>297</v>
@@ -9444,16 +9444,16 @@
     </row>
     <row r="13" spans="1:30" s="66" customFormat="1" ht="14" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E13" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -9488,16 +9488,16 @@
     </row>
     <row r="14" spans="1:30" s="66" customFormat="1" ht="14" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>298</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E14" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -9524,7 +9524,7 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="40"/>
       <c r="Z14" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AA14" s="68"/>
       <c r="AB14" s="63"/>
@@ -9532,13 +9532,13 @@
     </row>
     <row r="15" spans="1:30" s="66" customFormat="1" ht="14" customHeight="1">
       <c r="A15" s="68" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>501</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>206</v>
@@ -9568,7 +9568,7 @@
       <c r="X15" s="9"/>
       <c r="Y15" s="40"/>
       <c r="Z15" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AA15" s="68"/>
       <c r="AB15" s="63"/>
@@ -9576,13 +9576,13 @@
     </row>
     <row r="16" spans="1:30" s="66" customFormat="1" ht="14" customHeight="1">
       <c r="A16" s="68" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>206</v>
@@ -9612,7 +9612,7 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="40"/>
       <c r="Z16" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AA16" s="68"/>
       <c r="AB16" s="63"/>
@@ -9620,13 +9620,13 @@
     </row>
     <row r="17" spans="1:30" s="66" customFormat="1" ht="14" customHeight="1">
       <c r="A17" s="68" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B17" s="111" t="s">
+        <v>508</v>
+      </c>
+      <c r="C17" s="103" t="s">
         <v>509</v>
-      </c>
-      <c r="C17" s="103" t="s">
-        <v>510</v>
       </c>
       <c r="D17" s="68" t="s">
         <v>210</v>
@@ -9646,7 +9646,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -9660,7 +9660,7 @@
       <c r="X17" s="9"/>
       <c r="Y17" s="40"/>
       <c r="Z17" s="103" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AA17" s="68"/>
       <c r="AB17" s="63"/>
@@ -9668,13 +9668,13 @@
     </row>
     <row r="18" spans="1:30" s="66" customFormat="1" ht="14" customHeight="1">
       <c r="A18" s="68" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B18" s="112" t="s">
+        <v>510</v>
+      </c>
+      <c r="C18" s="74" t="s">
         <v>511</v>
-      </c>
-      <c r="C18" s="74" t="s">
-        <v>512</v>
       </c>
       <c r="D18" s="68" t="s">
         <v>210</v>
@@ -9694,7 +9694,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="72" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
@@ -9708,7 +9708,7 @@
       <c r="X18" s="72"/>
       <c r="Y18" s="73"/>
       <c r="Z18" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AA18" s="68"/>
       <c r="AB18" s="63"/>
@@ -9716,10 +9716,10 @@
     </row>
     <row r="19" spans="1:30" s="66" customFormat="1" ht="14" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>297</v>
@@ -9764,13 +9764,13 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>514</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>210</v>
@@ -9795,10 +9795,10 @@
         <v>383</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R20" s="98" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S20" s="98" t="s">
         <v>297</v>
@@ -9810,21 +9810,21 @@
       <c r="X20" s="9"/>
       <c r="Y20" s="40"/>
       <c r="Z20" s="115" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C21" s="68" t="s">
         <v>494</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="D21" s="68" t="s">
         <v>495</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>496</v>
       </c>
       <c r="E21" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -9853,23 +9853,23 @@
       <c r="X21" s="9"/>
       <c r="Y21" s="40"/>
       <c r="Z21" s="68" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AA21" s="68"/>
       <c r="AB21" s="63"/>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="68" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C22" s="68" t="s">
         <v>298</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E22" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -9896,23 +9896,23 @@
       <c r="X22" s="9"/>
       <c r="Y22" s="40"/>
       <c r="Z22" s="68" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AA22" s="68"/>
       <c r="AB22" s="63"/>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="68" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B23" s="68" t="s">
+        <v>514</v>
+      </c>
+      <c r="C23" s="68" t="s">
         <v>515</v>
       </c>
-      <c r="C23" s="68" t="s">
-        <v>516</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E23" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -9939,20 +9939,20 @@
       <c r="X23" s="9"/>
       <c r="Y23" s="40"/>
       <c r="Z23" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AA23" s="68"/>
       <c r="AB23" s="63"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="68" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B24" s="68" t="s">
+        <v>516</v>
+      </c>
+      <c r="C24" s="68" t="s">
         <v>517</v>
-      </c>
-      <c r="C24" s="68" t="s">
-        <v>518</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>206</v>
@@ -9982,23 +9982,23 @@
       <c r="X24" s="9"/>
       <c r="Y24" s="40"/>
       <c r="Z24" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AA24" s="68"/>
       <c r="AB24" s="63"/>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="68" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B25" s="68" t="s">
+        <v>497</v>
+      </c>
+      <c r="C25" s="68" t="s">
         <v>498</v>
       </c>
-      <c r="C25" s="68" t="s">
-        <v>499</v>
-      </c>
       <c r="D25" s="68" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E25" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -10025,20 +10025,20 @@
       <c r="X25" s="9"/>
       <c r="Y25" s="40"/>
       <c r="Z25" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AA25" s="68"/>
       <c r="AB25" s="63"/>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="68" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B26" s="68" t="s">
+        <v>499</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>501</v>
       </c>
       <c r="D26" s="68" t="s">
         <v>206</v>
@@ -10068,20 +10068,20 @@
       <c r="X26" s="9"/>
       <c r="Y26" s="40"/>
       <c r="Z26" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AA26" s="68"/>
       <c r="AB26" s="63"/>
     </row>
     <row r="27" spans="1:30" s="66" customFormat="1" ht="14" customHeight="1">
       <c r="A27" s="68" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B27" s="111" t="s">
+        <v>508</v>
+      </c>
+      <c r="C27" s="103" t="s">
         <v>509</v>
-      </c>
-      <c r="C27" s="103" t="s">
-        <v>510</v>
       </c>
       <c r="D27" s="68" t="s">
         <v>210</v>
@@ -10101,7 +10101,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
@@ -10115,7 +10115,7 @@
       <c r="X27" s="9"/>
       <c r="Y27" s="40"/>
       <c r="Z27" s="103" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AA27" s="68"/>
       <c r="AB27" s="63"/>
@@ -10123,13 +10123,13 @@
     </row>
     <row r="28" spans="1:30" s="66" customFormat="1" ht="14" customHeight="1">
       <c r="A28" s="68" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B28" s="112" t="s">
+        <v>510</v>
+      </c>
+      <c r="C28" s="74" t="s">
         <v>511</v>
-      </c>
-      <c r="C28" s="74" t="s">
-        <v>512</v>
       </c>
       <c r="D28" s="68" t="s">
         <v>210</v>
@@ -10149,7 +10149,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="72" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
@@ -10163,7 +10163,7 @@
       <c r="X28" s="72"/>
       <c r="Y28" s="73"/>
       <c r="Z28" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AA28" s="68"/>
       <c r="AB28" s="63"/>
@@ -10171,13 +10171,13 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="68" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>210</v>
@@ -10204,10 +10204,10 @@
         <v>383</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R29" s="98" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S29" s="98" t="s">
         <v>297</v>
@@ -10226,10 +10226,10 @@
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="68" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B30" s="68" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>297</v>
@@ -10273,13 +10273,13 @@
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="68" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>210</v>
@@ -10304,10 +10304,10 @@
         <v>383</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R31" s="98" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S31" s="98" t="s">
         <v>297</v>
@@ -10319,23 +10319,23 @@
       <c r="X31" s="9"/>
       <c r="Y31" s="40"/>
       <c r="Z31" s="115" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA31" s="68"/>
       <c r="AB31" s="63"/>
     </row>
     <row r="32" spans="1:30" s="66" customFormat="1" ht="14" customHeight="1">
       <c r="A32" s="68" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E32" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -10343,7 +10343,7 @@
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -10372,16 +10372,16 @@
     </row>
     <row r="33" spans="1:30" s="66" customFormat="1" ht="14" customHeight="1">
       <c r="A33" s="68" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>298</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E33" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -10408,7 +10408,7 @@
       <c r="X33" s="9"/>
       <c r="Y33" s="40"/>
       <c r="Z33" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AA33" s="68"/>
       <c r="AB33" s="63"/>
@@ -10416,16 +10416,16 @@
     </row>
     <row r="34" spans="1:30" s="66" customFormat="1" ht="14" customHeight="1">
       <c r="A34" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>522</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E34" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -10452,7 +10452,7 @@
       <c r="X34" s="9"/>
       <c r="Y34" s="40"/>
       <c r="Z34" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AA34" s="68"/>
       <c r="AB34" s="63"/>
@@ -10460,16 +10460,16 @@
     </row>
     <row r="35" spans="1:30" ht="96">
       <c r="A35" s="68" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B35" s="68" t="s">
+        <v>522</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>524</v>
-      </c>
       <c r="D35" s="68" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E35" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -10497,26 +10497,26 @@
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="40" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="Z35" s="68" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AA35" s="68"/>
       <c r="AB35" s="63"/>
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="68" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B36" s="68" t="s">
+        <v>524</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>526</v>
-      </c>
       <c r="D36" s="68" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E36" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -10545,23 +10545,23 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="40"/>
       <c r="Z36" s="68" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AA36" s="68"/>
       <c r="AB36" s="63"/>
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="68" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B37" s="68" t="s">
+        <v>526</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>528</v>
-      </c>
       <c r="D37" s="68" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E37" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -10590,23 +10590,23 @@
       <c r="X37" s="9"/>
       <c r="Y37" s="40"/>
       <c r="Z37" s="115" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AA37" s="68"/>
       <c r="AB37" s="63"/>
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="68" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B38" s="68" t="s">
+        <v>528</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>530</v>
-      </c>
       <c r="D38" s="68" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E38" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -10635,17 +10635,17 @@
       <c r="X38" s="9"/>
       <c r="Y38" s="40"/>
       <c r="Z38" s="115" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AA38" s="68"/>
       <c r="AB38" s="63"/>
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="68" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B39" s="68" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>297</v>
@@ -10689,13 +10689,13 @@
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="68" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>210</v>
@@ -10706,7 +10706,7 @@
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -10722,16 +10722,16 @@
         <v>395</v>
       </c>
       <c r="Q40" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="R40" s="68" t="s">
+        <v>518</v>
+      </c>
+      <c r="S40" s="98" t="s">
+        <v>422</v>
+      </c>
+      <c r="T40" s="98" t="s">
         <v>616</v>
-      </c>
-      <c r="R40" s="68" t="s">
-        <v>519</v>
-      </c>
-      <c r="S40" s="98" t="s">
-        <v>423</v>
-      </c>
-      <c r="T40" s="98" t="s">
-        <v>617</v>
       </c>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
@@ -10739,20 +10739,20 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="40"/>
       <c r="Z40" s="115" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA40" s="68"/>
       <c r="AB40" s="63"/>
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="68" t="s">
+        <v>530</v>
+      </c>
+      <c r="B41" s="68" t="s">
         <v>531</v>
       </c>
-      <c r="B41" s="68" t="s">
+      <c r="C41" s="6" t="s">
         <v>532</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>533</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>210</v>
@@ -10763,7 +10763,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -10779,10 +10779,10 @@
         <v>383</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="R41" s="98" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S41" s="98" t="s">
         <v>297</v>
@@ -10794,23 +10794,23 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="40"/>
       <c r="Z41" s="115" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AA41" s="68"/>
       <c r="AB41" s="63"/>
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="68" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B42" s="68" t="s">
+        <v>533</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>535</v>
-      </c>
       <c r="D42" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E42" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -10818,7 +10818,7 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -10839,23 +10839,23 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="40"/>
       <c r="Z42" s="115" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AA42" s="68"/>
       <c r="AB42" s="63"/>
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="68" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B43" s="113" t="s">
+        <v>535</v>
+      </c>
+      <c r="C43" s="113" t="s">
         <v>536</v>
       </c>
-      <c r="C43" s="113" t="s">
-        <v>537</v>
-      </c>
       <c r="D43" s="68" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E43" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -10882,17 +10882,17 @@
       <c r="X43" s="9"/>
       <c r="Y43" s="40"/>
       <c r="Z43" s="113" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AA43" s="68"/>
       <c r="AB43" s="63"/>
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="68" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B44" s="68" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>297</v>
@@ -10936,13 +10936,13 @@
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="68" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>210</v>
@@ -10953,7 +10953,7 @@
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -10969,16 +10969,16 @@
         <v>395</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="R45" s="68" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="S45" s="98" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T45" s="98" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
@@ -10986,23 +10986,23 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="40"/>
       <c r="Z45" s="115" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA45" s="68"/>
       <c r="AB45" s="63"/>
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="68" t="s">
+        <v>537</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>539</v>
-      </c>
       <c r="C46" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E46" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -11010,7 +11010,7 @@
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -11031,17 +11031,17 @@
       <c r="X46" s="9"/>
       <c r="Y46" s="40"/>
       <c r="Z46" s="115" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AA46" s="68"/>
       <c r="AB46" s="63"/>
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="68" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>297</v>
@@ -11085,13 +11085,13 @@
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="68" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>210</v>
@@ -11102,7 +11102,7 @@
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -11118,10 +11118,10 @@
         <v>383</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R48" s="98" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S48" s="98" t="s">
         <v>297</v>
@@ -11133,23 +11133,23 @@
       <c r="X48" s="9"/>
       <c r="Y48" s="40"/>
       <c r="Z48" s="115" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA48" s="68"/>
       <c r="AB48" s="63"/>
     </row>
     <row r="49" spans="1:28">
       <c r="A49" s="68" t="s">
+        <v>539</v>
+      </c>
+      <c r="B49" s="68" t="s">
         <v>540</v>
       </c>
-      <c r="B49" s="68" t="s">
+      <c r="C49" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>542</v>
-      </c>
       <c r="D49" s="68" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E49" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -11157,7 +11157,7 @@
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
@@ -11178,20 +11178,20 @@
       <c r="X49" s="9"/>
       <c r="Y49" s="40"/>
       <c r="Z49" s="68" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA49" s="68"/>
       <c r="AB49" s="63"/>
     </row>
     <row r="50" spans="1:28">
       <c r="A50" s="68" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B50" s="68" t="s">
+        <v>531</v>
+      </c>
+      <c r="C50" s="68" t="s">
         <v>532</v>
-      </c>
-      <c r="C50" s="68" t="s">
-        <v>533</v>
       </c>
       <c r="D50" s="68" t="s">
         <v>210</v>
@@ -11216,10 +11216,10 @@
         <v>383</v>
       </c>
       <c r="Q50" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="R50" s="98" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S50" s="98" t="s">
         <v>297</v>
@@ -11231,23 +11231,23 @@
       <c r="X50" s="9"/>
       <c r="Y50" s="40"/>
       <c r="Z50" s="68" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AA50" s="68"/>
       <c r="AB50" s="63"/>
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="68" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B51" s="68" t="s">
+        <v>542</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>544</v>
-      </c>
       <c r="D51" s="68" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E51" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -11255,7 +11255,7 @@
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
@@ -11276,23 +11276,23 @@
       <c r="X51" s="9"/>
       <c r="Y51" s="40"/>
       <c r="Z51" s="68" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AA51" s="68"/>
       <c r="AB51" s="63"/>
     </row>
     <row r="52" spans="1:28">
       <c r="A52" s="68" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B52" s="68" t="s">
+        <v>544</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>546</v>
-      </c>
       <c r="D52" s="68" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E52" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -11319,23 +11319,23 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="40"/>
       <c r="Z52" s="115" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AA52" s="68"/>
       <c r="AB52" s="63"/>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="68" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B53" s="68" t="s">
+        <v>546</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>548</v>
-      </c>
       <c r="D53" s="68" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E53" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -11364,17 +11364,17 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="40"/>
       <c r="Z53" s="115" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AA53" s="68"/>
       <c r="AB53" s="63"/>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="68" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>297</v>
@@ -11418,13 +11418,13 @@
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="68" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>210</v>
@@ -11449,10 +11449,10 @@
         <v>383</v>
       </c>
       <c r="Q55" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R55" s="98" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S55" s="98" t="s">
         <v>297</v>
@@ -11464,23 +11464,23 @@
       <c r="X55" s="9"/>
       <c r="Y55" s="40"/>
       <c r="Z55" s="115" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA55" s="68"/>
       <c r="AB55" s="63"/>
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="68" t="s">
+        <v>548</v>
+      </c>
+      <c r="B56" s="68" t="s">
         <v>549</v>
       </c>
-      <c r="B56" s="68" t="s">
+      <c r="C56" s="68" t="s">
         <v>550</v>
       </c>
-      <c r="C56" s="68" t="s">
-        <v>551</v>
-      </c>
       <c r="D56" s="68" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E56" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -11488,7 +11488,7 @@
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
@@ -11509,20 +11509,20 @@
       <c r="X56" s="9"/>
       <c r="Y56" s="40"/>
       <c r="Z56" s="68" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA56" s="68"/>
       <c r="AB56" s="63"/>
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="68" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B57" s="68" t="s">
+        <v>531</v>
+      </c>
+      <c r="C57" s="68" t="s">
         <v>532</v>
-      </c>
-      <c r="C57" s="68" t="s">
-        <v>533</v>
       </c>
       <c r="D57" s="68" t="s">
         <v>210</v>
@@ -11547,10 +11547,10 @@
         <v>383</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="R57" s="98" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S57" s="98" t="s">
         <v>297</v>
@@ -11562,20 +11562,20 @@
       <c r="X57" s="9"/>
       <c r="Y57" s="40"/>
       <c r="Z57" s="68" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AA57" s="68"/>
       <c r="AB57" s="63"/>
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="68" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B58" s="68" t="s">
+        <v>551</v>
+      </c>
+      <c r="C58" s="68" t="s">
         <v>552</v>
-      </c>
-      <c r="C58" s="68" t="s">
-        <v>553</v>
       </c>
       <c r="D58" s="68" t="s">
         <v>210</v>
@@ -11600,10 +11600,10 @@
         <v>383</v>
       </c>
       <c r="Q58" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="R58" s="98" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S58" s="98" t="s">
         <v>297</v>
@@ -11615,20 +11615,20 @@
       <c r="X58" s="9"/>
       <c r="Y58" s="40"/>
       <c r="Z58" s="68" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AA58" s="68"/>
       <c r="AB58" s="63"/>
     </row>
     <row r="59" spans="1:28" ht="32">
       <c r="A59" s="68" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B59" s="113" t="s">
+        <v>553</v>
+      </c>
+      <c r="C59" s="113" t="s">
         <v>554</v>
-      </c>
-      <c r="C59" s="113" t="s">
-        <v>555</v>
       </c>
       <c r="D59" s="113" t="s">
         <v>210</v>
@@ -11659,26 +11659,26 @@
       <c r="W59" s="9"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="Z59" s="68" t="s">
         <v>628</v>
-      </c>
-      <c r="Z59" s="68" t="s">
-        <v>629</v>
       </c>
       <c r="AA59" s="68"/>
       <c r="AB59" s="63"/>
     </row>
     <row r="60" spans="1:28" ht="112">
       <c r="A60" s="68" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B60" s="68" t="s">
+        <v>555</v>
+      </c>
+      <c r="C60" s="68" t="s">
         <v>556</v>
       </c>
-      <c r="C60" s="68" t="s">
-        <v>557</v>
-      </c>
       <c r="D60" s="68" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E60" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -11706,26 +11706,26 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
       <c r="Y60" s="78" t="s">
+        <v>629</v>
+      </c>
+      <c r="Z60" s="68" t="s">
         <v>630</v>
-      </c>
-      <c r="Z60" s="68" t="s">
-        <v>631</v>
       </c>
       <c r="AA60" s="68"/>
       <c r="AB60" s="63"/>
     </row>
     <row r="61" spans="1:28" ht="16">
       <c r="A61" s="68" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B61" s="68" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C61" s="68" t="s">
         <v>298</v>
       </c>
       <c r="D61" s="68" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E61" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -11752,20 +11752,20 @@
       <c r="X61" s="63"/>
       <c r="Y61" s="78"/>
       <c r="Z61" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AA61" s="68"/>
       <c r="AB61" s="63"/>
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="68" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B62" s="68" t="s">
+        <v>557</v>
+      </c>
+      <c r="C62" s="68" t="s">
         <v>558</v>
-      </c>
-      <c r="C62" s="68" t="s">
-        <v>559</v>
       </c>
       <c r="D62" s="68" t="s">
         <v>206</v>
@@ -11795,20 +11795,20 @@
       <c r="X62" s="9"/>
       <c r="Y62" s="40"/>
       <c r="Z62" s="68" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AA62" s="68"/>
       <c r="AB62" s="63"/>
     </row>
     <row r="63" spans="1:28">
       <c r="A63" s="68" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B63" s="68" t="s">
+        <v>559</v>
+      </c>
+      <c r="C63" s="68" t="s">
         <v>560</v>
-      </c>
-      <c r="C63" s="68" t="s">
-        <v>561</v>
       </c>
       <c r="D63" s="68" t="s">
         <v>206</v>
@@ -11838,20 +11838,20 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="40"/>
       <c r="Z63" s="68" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AA63" s="68"/>
       <c r="AB63" s="63"/>
     </row>
     <row r="64" spans="1:28">
       <c r="A64" s="68" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B64" s="68" t="s">
+        <v>561</v>
+      </c>
+      <c r="C64" s="68" t="s">
         <v>562</v>
-      </c>
-      <c r="C64" s="68" t="s">
-        <v>563</v>
       </c>
       <c r="D64" s="68" t="s">
         <v>210</v>
@@ -11883,20 +11883,20 @@
       <c r="X64" s="9"/>
       <c r="Y64" s="40"/>
       <c r="Z64" s="68" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AA64" s="68"/>
       <c r="AB64" s="63"/>
     </row>
     <row r="65" spans="1:28" ht="32">
       <c r="A65" s="68" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B65" s="68" t="s">
+        <v>563</v>
+      </c>
+      <c r="C65" s="68" t="s">
         <v>564</v>
-      </c>
-      <c r="C65" s="68" t="s">
-        <v>565</v>
       </c>
       <c r="D65" s="68" t="s">
         <v>210</v>
@@ -11927,20 +11927,20 @@
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
       <c r="Y65" s="40" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Z65" s="68" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AA65" s="68"/>
       <c r="AB65" s="63"/>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="113" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B66" s="114" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C66" s="114" t="s">
         <v>297</v>
@@ -11984,13 +11984,13 @@
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="113" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>210</v>
@@ -12015,10 +12015,10 @@
         <v>383</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R67" s="98" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S67" s="98" t="s">
         <v>297</v>
@@ -12030,20 +12030,20 @@
       <c r="X67" s="9"/>
       <c r="Y67" s="40"/>
       <c r="Z67" s="115" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA67" s="68"/>
       <c r="AB67" s="63"/>
     </row>
     <row r="68" spans="1:28">
       <c r="A68" s="113" t="s">
+        <v>565</v>
+      </c>
+      <c r="B68" s="113" t="s">
         <v>566</v>
       </c>
-      <c r="B68" s="113" t="s">
+      <c r="C68" s="113" t="s">
         <v>567</v>
-      </c>
-      <c r="C68" s="113" t="s">
-        <v>568</v>
       </c>
       <c r="D68" s="113" t="s">
         <v>210</v>
@@ -12068,10 +12068,10 @@
         <v>395</v>
       </c>
       <c r="Q68" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R68" s="98" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S68" s="98" t="s">
         <v>297</v>
@@ -12092,13 +12092,13 @@
     </row>
     <row r="69" spans="1:28" ht="32">
       <c r="A69" s="113" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B69" s="113" t="s">
+        <v>553</v>
+      </c>
+      <c r="C69" s="113" t="s">
         <v>554</v>
-      </c>
-      <c r="C69" s="113" t="s">
-        <v>555</v>
       </c>
       <c r="D69" s="113" t="s">
         <v>210</v>
@@ -12129,26 +12129,26 @@
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
       <c r="Y69" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="Z69" s="68" t="s">
         <v>628</v>
-      </c>
-      <c r="Z69" s="68" t="s">
-        <v>629</v>
       </c>
       <c r="AA69" s="68"/>
       <c r="AB69" s="63"/>
     </row>
     <row r="70" spans="1:28" ht="32">
       <c r="A70" s="113" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B70" s="68" t="s">
+        <v>555</v>
+      </c>
+      <c r="C70" s="68" t="s">
         <v>556</v>
       </c>
-      <c r="C70" s="68" t="s">
-        <v>557</v>
-      </c>
       <c r="D70" s="68" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E70" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -12176,26 +12176,26 @@
       <c r="W70" s="117"/>
       <c r="X70" s="117"/>
       <c r="Y70" s="40" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Z70" s="68" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AA70" s="68"/>
       <c r="AB70" s="63"/>
     </row>
     <row r="71" spans="1:28">
       <c r="A71" s="113" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B71" s="113" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C71" s="68" t="s">
         <v>298</v>
       </c>
       <c r="D71" s="113" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E71" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -12222,20 +12222,20 @@
       <c r="X71" s="117"/>
       <c r="Y71" s="111"/>
       <c r="Z71" s="113" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AA71" s="68"/>
       <c r="AB71" s="63"/>
     </row>
     <row r="72" spans="1:28">
       <c r="A72" s="113" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B72" s="114" t="s">
+        <v>568</v>
+      </c>
+      <c r="C72" s="114" t="s">
         <v>569</v>
-      </c>
-      <c r="C72" s="114" t="s">
-        <v>570</v>
       </c>
       <c r="D72" s="113" t="s">
         <v>206</v>
@@ -12265,23 +12265,23 @@
       <c r="X72" s="117"/>
       <c r="Y72" s="111"/>
       <c r="Z72" s="113" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AA72" s="68"/>
       <c r="AB72" s="63"/>
     </row>
     <row r="73" spans="1:28">
       <c r="A73" s="113" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B73" s="113" t="s">
+        <v>570</v>
+      </c>
+      <c r="C73" s="113" t="s">
         <v>571</v>
       </c>
-      <c r="C73" s="113" t="s">
+      <c r="D73" s="113" t="s">
         <v>572</v>
-      </c>
-      <c r="D73" s="113" t="s">
-        <v>573</v>
       </c>
       <c r="E73" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -12310,23 +12310,23 @@
       <c r="X73" s="117"/>
       <c r="Y73" s="111"/>
       <c r="Z73" s="113" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AA73" s="68"/>
       <c r="AB73" s="63"/>
     </row>
     <row r="74" spans="1:28">
       <c r="A74" s="113" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B74" s="113" t="s">
+        <v>573</v>
+      </c>
+      <c r="C74" s="113" t="s">
         <v>574</v>
       </c>
-      <c r="C74" s="113" t="s">
-        <v>575</v>
-      </c>
       <c r="D74" s="113" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E74" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -12355,17 +12355,17 @@
       <c r="X74" s="117"/>
       <c r="Y74" s="111"/>
       <c r="Z74" s="113" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AA74" s="68"/>
       <c r="AB74" s="63"/>
     </row>
     <row r="75" spans="1:28">
       <c r="A75" s="113" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B75" s="113" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C75" s="113" t="s">
         <v>297</v>
@@ -12409,13 +12409,13 @@
     </row>
     <row r="76" spans="1:28">
       <c r="A76" s="113" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>210</v>
@@ -12440,10 +12440,10 @@
         <v>383</v>
       </c>
       <c r="Q76" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R76" s="98" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S76" s="98" t="s">
         <v>297</v>
@@ -12455,20 +12455,20 @@
       <c r="X76" s="9"/>
       <c r="Y76" s="40"/>
       <c r="Z76" s="115" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA76" s="68"/>
       <c r="AB76" s="63"/>
     </row>
     <row r="77" spans="1:28">
       <c r="A77" s="113" t="s">
+        <v>575</v>
+      </c>
+      <c r="B77" s="113" t="s">
         <v>576</v>
       </c>
-      <c r="B77" s="113" t="s">
+      <c r="C77" s="113" t="s">
         <v>577</v>
-      </c>
-      <c r="C77" s="113" t="s">
-        <v>578</v>
       </c>
       <c r="D77" s="113" t="s">
         <v>210</v>
@@ -12479,7 +12479,7 @@
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="117" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H77" s="117"/>
       <c r="I77" s="117"/>
@@ -12495,10 +12495,10 @@
         <v>383</v>
       </c>
       <c r="Q77" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="R77" s="98" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="S77" s="98" t="s">
         <v>297</v>
@@ -12510,20 +12510,20 @@
       <c r="X77" s="117"/>
       <c r="Y77" s="111"/>
       <c r="Z77" s="113" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AA77" s="68"/>
       <c r="AB77" s="63"/>
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="113" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B78" s="113" t="s">
+        <v>578</v>
+      </c>
+      <c r="C78" s="113" t="s">
         <v>579</v>
-      </c>
-      <c r="C78" s="113" t="s">
-        <v>580</v>
       </c>
       <c r="D78" s="113" t="s">
         <v>210</v>
@@ -12534,7 +12534,7 @@
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="117" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H78" s="117"/>
       <c r="I78" s="117"/>
@@ -12550,10 +12550,10 @@
         <v>383</v>
       </c>
       <c r="Q78" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="R78" s="98" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="S78" s="98" t="s">
         <v>297</v>
@@ -12565,20 +12565,20 @@
       <c r="X78" s="117"/>
       <c r="Y78" s="111"/>
       <c r="Z78" s="113" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AA78" s="68"/>
       <c r="AB78" s="63"/>
     </row>
     <row r="79" spans="1:28">
       <c r="A79" s="68" t="s">
+        <v>580</v>
+      </c>
+      <c r="B79" s="68" t="s">
         <v>581</v>
       </c>
-      <c r="B79" s="68" t="s">
-        <v>582</v>
-      </c>
       <c r="C79" s="68" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D79" s="68" t="s">
         <v>210</v>
@@ -12610,20 +12610,20 @@
       <c r="X79" s="63"/>
       <c r="Y79" s="78"/>
       <c r="Z79" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AA79" s="68"/>
       <c r="AB79" s="63"/>
     </row>
     <row r="80" spans="1:28">
       <c r="A80" s="68" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>210</v>
@@ -12648,10 +12648,10 @@
         <v>383</v>
       </c>
       <c r="Q80" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R80" s="98" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S80" s="98" t="s">
         <v>297</v>
@@ -12663,23 +12663,23 @@
       <c r="X80" s="9"/>
       <c r="Y80" s="40"/>
       <c r="Z80" s="115" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA80" s="68"/>
       <c r="AB80" s="63"/>
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="68" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B81" s="68" t="s">
+        <v>582</v>
+      </c>
+      <c r="C81" s="68" t="s">
         <v>583</v>
       </c>
-      <c r="C81" s="68" t="s">
-        <v>584</v>
-      </c>
       <c r="D81" s="68" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E81" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -12706,20 +12706,20 @@
       <c r="X81" s="63"/>
       <c r="Y81" s="78"/>
       <c r="Z81" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AA81" s="68"/>
       <c r="AB81" s="63"/>
     </row>
     <row r="82" spans="1:28">
       <c r="A82" s="68" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B82" s="68" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C82" s="68" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D82" s="68" t="s">
         <v>210</v>
@@ -12746,10 +12746,10 @@
         <v>395</v>
       </c>
       <c r="Q82" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R82" s="98" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S82" s="98" t="s">
         <v>297</v>
@@ -12761,20 +12761,20 @@
       <c r="X82" s="63"/>
       <c r="Y82" s="78"/>
       <c r="Z82" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AA82" s="68"/>
       <c r="AB82" s="63"/>
     </row>
     <row r="83" spans="1:28">
       <c r="A83" s="68" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>210</v>
@@ -12799,10 +12799,10 @@
         <v>383</v>
       </c>
       <c r="Q83" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R83" s="98" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S83" s="98" t="s">
         <v>297</v>
@@ -12814,20 +12814,20 @@
       <c r="X83" s="9"/>
       <c r="Y83" s="40"/>
       <c r="Z83" s="115" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA83" s="68"/>
       <c r="AB83" s="63"/>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="68" t="s">
+        <v>584</v>
+      </c>
+      <c r="B84" s="68" t="s">
         <v>585</v>
       </c>
-      <c r="B84" s="68" t="s">
+      <c r="C84" s="68" t="s">
         <v>586</v>
-      </c>
-      <c r="C84" s="68" t="s">
-        <v>587</v>
       </c>
       <c r="D84" s="68" t="s">
         <v>374</v>
@@ -12857,20 +12857,20 @@
       <c r="X84" s="9"/>
       <c r="Y84" s="40"/>
       <c r="Z84" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AA84" s="68"/>
       <c r="AB84" s="63"/>
     </row>
     <row r="85" spans="1:28">
       <c r="A85" s="68" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B85" s="68" t="s">
+        <v>587</v>
+      </c>
+      <c r="C85" s="68" t="s">
         <v>588</v>
-      </c>
-      <c r="C85" s="68" t="s">
-        <v>589</v>
       </c>
       <c r="D85" s="68" t="s">
         <v>210</v>
@@ -12900,23 +12900,23 @@
       <c r="X85" s="9"/>
       <c r="Y85" s="40"/>
       <c r="Z85" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AA85" s="68"/>
       <c r="AB85" s="63"/>
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="68" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B86" s="68" t="s">
+        <v>589</v>
+      </c>
+      <c r="C86" s="68" t="s">
         <v>590</v>
       </c>
-      <c r="C86" s="68" t="s">
-        <v>591</v>
-      </c>
       <c r="D86" s="68" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E86" s="69" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル7[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -12943,20 +12943,20 @@
       <c r="X86" s="9"/>
       <c r="Y86" s="40"/>
       <c r="Z86" s="68" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AA86" s="68"/>
       <c r="AB86" s="63"/>
     </row>
     <row r="87" spans="1:28">
       <c r="A87" s="68" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B87" s="68" t="s">
+        <v>591</v>
+      </c>
+      <c r="C87" s="68" t="s">
         <v>592</v>
-      </c>
-      <c r="C87" s="68" t="s">
-        <v>593</v>
       </c>
       <c r="D87" s="68" t="s">
         <v>206</v>
@@ -12986,7 +12986,7 @@
       <c r="X87" s="9"/>
       <c r="Y87" s="40"/>
       <c r="Z87" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AA87" s="68"/>
       <c r="AB87" s="63"/>
@@ -13241,7 +13241,7 @@
         <v>299</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C7" s="103" t="s">
         <v>340</v>
@@ -13286,13 +13286,13 @@
         <v>299</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C8" s="103" t="s">
         <v>402</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E8" s="82" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル17[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -13331,7 +13331,7 @@
         <v>299</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C9" s="103" t="s">
         <v>224</v>
@@ -13380,7 +13380,7 @@
         <v>299</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C10" s="74" t="s">
         <v>295</v>
@@ -13423,13 +13423,13 @@
         <v>299</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C11" s="74" t="s">
         <v>407</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E11" s="82" t="str">
         <f>IF(NOT(ISNA(VLOOKUP(テーブル17[[#This Row],[dataType]], dataType定義!A:A, 1,FALSE))), "○", "×")</f>
@@ -13466,7 +13466,7 @@
         <v>299</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>217</v>
@@ -13515,7 +13515,7 @@
         <v>299</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>373</v>
@@ -13556,7 +13556,7 @@
         <v>299</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>296</v>
@@ -14690,7 +14690,7 @@
         <v>417</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>335</v>
@@ -14701,13 +14701,13 @@
         <v>45809</v>
       </c>
       <c r="B35" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="4" t="s">
         <v>683</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -14780,9 +14780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F743F8-1820-1546-BDEE-19623E66A990}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -14844,7 +14844,7 @@
         <v>303</v>
       </c>
       <c r="E7" s="85" t="s">
-        <v>418</v>
+        <v>684</v>
       </c>
       <c r="F7" s="85"/>
     </row>
@@ -14862,7 +14862,7 @@
         <v>263</v>
       </c>
       <c r="E8" s="85" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F8" s="85"/>
     </row>
@@ -14880,7 +14880,7 @@
         <v>233</v>
       </c>
       <c r="E9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F9" s="85"/>
     </row>
@@ -14970,7 +14970,7 @@
         <v>358</v>
       </c>
       <c r="E14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F14" s="85"/>
     </row>
@@ -14988,7 +14988,7 @@
         <v>359</v>
       </c>
       <c r="E15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F15" s="85"/>
     </row>
@@ -15030,7 +15030,7 @@
         <v>261</v>
       </c>
       <c r="C18" s="85" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D18" s="85" t="s">
         <v>122</v>
@@ -15048,13 +15048,13 @@
         <v>261</v>
       </c>
       <c r="C19" s="85" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D19" s="85" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E19" s="85" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F19" s="85"/>
     </row>
@@ -15066,13 +15066,13 @@
         <v>261</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D20" s="85" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F20" s="85"/>
     </row>
@@ -15084,10 +15084,10 @@
         <v>261</v>
       </c>
       <c r="C21" s="85" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D21" s="85" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E21" s="85"/>
       <c r="F21" s="85"/>
@@ -15100,10 +15100,10 @@
         <v>261</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D22" s="85" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E22" s="85"/>
       <c r="F22" s="85"/>
@@ -15230,7 +15230,7 @@
         <v>363</v>
       </c>
       <c r="E29" s="85" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F29" s="85"/>
     </row>
@@ -15248,7 +15248,7 @@
         <v>255</v>
       </c>
       <c r="E30" s="85" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F30" s="85"/>
     </row>
@@ -15266,7 +15266,7 @@
         <v>362</v>
       </c>
       <c r="E31" s="85" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F31" s="85"/>
     </row>
@@ -15351,7 +15351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S12" sqref="S12"/>
     </sheetView>
@@ -15535,7 +15535,7 @@
         <v>154</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>94</v>
@@ -15607,7 +15607,7 @@
         <v>187</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -15688,16 +15688,16 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>396</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>30</v>
@@ -15722,16 +15722,16 @@
     </row>
     <row r="14" spans="1:19" ht="64">
       <c r="A14" s="106" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B14" s="107" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="107" t="s">
+        <v>430</v>
+      </c>
+      <c r="D14" s="107" t="s">
         <v>431</v>
-      </c>
-      <c r="D14" s="107" t="s">
-        <v>432</v>
       </c>
       <c r="E14" s="107" t="s">
         <v>126</v>
@@ -15744,13 +15744,13 @@
         <v>40</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
@@ -15764,16 +15764,16 @@
     </row>
     <row r="15" spans="1:19" ht="48">
       <c r="A15" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>396</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>126</v>
@@ -15784,13 +15784,13 @@
       </c>
       <c r="G15" s="108"/>
       <c r="H15" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
@@ -15804,16 +15804,16 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="68" t="s">
+        <v>434</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>126</v>
@@ -15840,16 +15840,16 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>396</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>126</v>
@@ -15874,7 +15874,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>59</v>
@@ -15904,16 +15904,16 @@
     </row>
     <row r="19" spans="1:19" ht="48">
       <c r="A19" s="68" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>396</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>126</v>
@@ -15926,13 +15926,13 @@
         <v>40</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
@@ -15946,16 +15946,16 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="68" t="s">
+        <v>440</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>30</v>
@@ -15982,14 +15982,14 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="68" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>30</v>
@@ -16016,16 +16016,16 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
+        <v>443</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>30</v>
@@ -16050,16 +16050,16 @@
     </row>
     <row r="23" spans="1:19" ht="48">
       <c r="A23" s="68" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>396</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>126</v>
@@ -16072,13 +16072,13 @@
         <v>40</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
@@ -16092,16 +16092,16 @@
     </row>
     <row r="24" spans="1:19" ht="48">
       <c r="A24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>396</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>126</v>
@@ -16114,13 +16114,13 @@
         <v>40</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
@@ -16134,7 +16134,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B25" t="s">
         <v>410</v>
@@ -16164,16 +16164,16 @@
     </row>
     <row r="26" spans="1:19" ht="64">
       <c r="A26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>396</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>30</v>
@@ -16186,13 +16186,13 @@
         <v>40</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K26" s="38"/>
       <c r="L26" s="38"/>
@@ -16206,16 +16206,16 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="68" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>30</v>
@@ -16242,10 +16242,10 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -16270,7 +16270,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B29" t="s">
         <v>410</v>
@@ -16300,7 +16300,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="68" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B30" t="s">
         <v>410</v>
@@ -16330,10 +16330,10 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="68" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -16358,16 +16358,16 @@
     </row>
     <row r="32" spans="1:19" ht="64">
       <c r="A32" s="68" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>396</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>30</v>
@@ -16380,13 +16380,13 @@
         <v>40</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J32" s="38" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K32" s="38"/>
       <c r="L32" s="38"/>
@@ -16400,16 +16400,16 @@
     </row>
     <row r="33" spans="1:19" ht="32">
       <c r="A33" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>396</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>126</v>
@@ -16422,13 +16422,13 @@
         <v>40</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J33" s="38" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
@@ -16604,180 +16604,180 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="21" t="s">
         <v>396</v>
       </c>
       <c r="D8" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="G8" s="23" t="s">
         <v>473</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="21" t="s">
         <v>412</v>
       </c>
       <c r="D9" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="G9" s="23" t="s">
         <v>476</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="21" t="s">
         <v>411</v>
       </c>
       <c r="D10" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="G10" s="23" t="s">
         <v>479</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="21" t="s">
         <v>396</v>
       </c>
       <c r="D11" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>481</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>482</v>
       </c>
       <c r="F11" s="56"/>
       <c r="G11" s="21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="21" t="s">
         <v>412</v>
       </c>
       <c r="D12" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>483</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>484</v>
       </c>
       <c r="F12" s="56"/>
       <c r="G12" s="21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>486</v>
-      </c>
       <c r="E13" s="21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F13" s="56"/>
       <c r="G13" s="104" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="D14" s="110" t="s">
         <v>487</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="E14" s="21" t="s">
         <v>488</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>489</v>
       </c>
       <c r="F14" s="56"/>
       <c r="G14" s="21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="68" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="21" t="s">
         <v>396</v>
       </c>
       <c r="D15" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>490</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>491</v>
       </c>
       <c r="F15" s="56"/>
       <c r="G15" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="68" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="21" t="s">
         <v>412</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F16" s="56"/>
       <c r="G16" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
@@ -16879,7 +16879,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
